--- a/excel/报价.xlsx
+++ b/excel/报价.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\pythonAll\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="1" r:id="rId1"/>
     <sheet name="报价工具" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据库!$A$1:$H$5</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+  <si>
+    <t>采购型号</t>
+  </si>
   <si>
     <t>客户物料名称</t>
   </si>
   <si>
-    <t>采购型号</t>
-  </si>
-  <si>
     <t>未税单价</t>
   </si>
   <si>
@@ -41,48 +49,39 @@
     <t>价格有效期(必填)</t>
   </si>
   <si>
-    <t>输出模块_EL2889-数字量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入模块_EL1889-数字量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变频器_EFC5610-0K40-3P4-MDA-7P-NNNNN-L1NN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EL2889</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EL1889</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFC5610-0K40-3P4-MDA-7P-NNNNN-L1NN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKART-148-90-19-20-00-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倍福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力士乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伺服电机_SKART-148-90-19-20-00-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -97,21 +96,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,13 +112,34 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -162,26 +168,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,186 +512,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.375" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="7"/>
+    <col min="4" max="8" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3567.52</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4282.05</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5372.65</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5372.65</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="H4" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="H5" s="6">
-        <v>40</v>
-      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="A1:H5"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>11111</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>